--- a/data/pca/factorExposure/factorExposure_2013-07-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-03.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002102112637909105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001394791868953829</v>
+      </c>
+      <c r="C2">
+        <v>-0.03184527600682967</v>
+      </c>
+      <c r="D2">
+        <v>0.004879823195344008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002816892300493468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006220629057980686</v>
+      </c>
+      <c r="C4">
+        <v>-0.08335255742575154</v>
+      </c>
+      <c r="D4">
+        <v>0.08074036764680635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002963111909173752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01362201311228992</v>
+      </c>
+      <c r="C6">
+        <v>-0.1056568995702568</v>
+      </c>
+      <c r="D6">
+        <v>0.04069343586289384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001283710806448981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00494709301202767</v>
+      </c>
+      <c r="C7">
+        <v>-0.05153544938453293</v>
+      </c>
+      <c r="D7">
+        <v>0.03937710858562438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002868698203625346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006125486742074602</v>
+      </c>
+      <c r="C8">
+        <v>-0.03850637118206165</v>
+      </c>
+      <c r="D8">
+        <v>0.03736742737794611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005852681011698575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004180581053723614</v>
+      </c>
+      <c r="C9">
+        <v>-0.06748176799929015</v>
+      </c>
+      <c r="D9">
+        <v>0.07049484427189565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004570624069356452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006093383155237822</v>
+      </c>
+      <c r="C10">
+        <v>-0.08889857115470105</v>
+      </c>
+      <c r="D10">
+        <v>-0.217116347719315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005930398037624202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005132311519558233</v>
+      </c>
+      <c r="C11">
+        <v>-0.07846167720854633</v>
+      </c>
+      <c r="D11">
+        <v>0.06473474735386463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0009908717388832874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003942312455506526</v>
+      </c>
+      <c r="C12">
+        <v>-0.06236813510180611</v>
+      </c>
+      <c r="D12">
+        <v>0.04679427439943017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002729656294242354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008408271902824633</v>
+      </c>
+      <c r="C13">
+        <v>-0.06825346836016993</v>
+      </c>
+      <c r="D13">
+        <v>0.07699129610982124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003850995030336685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.00198571838340009</v>
+      </c>
+      <c r="C14">
+        <v>-0.04725754809797826</v>
+      </c>
+      <c r="D14">
+        <v>0.01552735452500417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003198950484895913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005931675228174923</v>
+      </c>
+      <c r="C15">
+        <v>-0.03726112373146448</v>
+      </c>
+      <c r="D15">
+        <v>0.04457861184362891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003642628580773118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005200349497907805</v>
+      </c>
+      <c r="C16">
+        <v>-0.06396919987450582</v>
+      </c>
+      <c r="D16">
+        <v>0.05032636983668562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001403350699150812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009358638146854652</v>
+      </c>
+      <c r="C20">
+        <v>-0.06490721610861833</v>
+      </c>
+      <c r="D20">
+        <v>0.05719226532936002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003041192847211037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009669151946705125</v>
+      </c>
+      <c r="C21">
+        <v>-0.02630549743361675</v>
+      </c>
+      <c r="D21">
+        <v>0.03859651166097269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01650035740276317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00755154723647692</v>
+      </c>
+      <c r="C22">
+        <v>-0.08518111805001946</v>
+      </c>
+      <c r="D22">
+        <v>0.103858298338597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01676129135382757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.00730668323164397</v>
+      </c>
+      <c r="C23">
+        <v>-0.08777051094636738</v>
+      </c>
+      <c r="D23">
+        <v>0.1010460223611035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004550882858831156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004727316574860481</v>
+      </c>
+      <c r="C24">
+        <v>-0.07163519137767585</v>
+      </c>
+      <c r="D24">
+        <v>0.05969870117247107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005627907346500391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003080688977345347</v>
+      </c>
+      <c r="C25">
+        <v>-0.07651443551778123</v>
+      </c>
+      <c r="D25">
+        <v>0.06331891214923338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007081099162431901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003755664533254236</v>
+      </c>
+      <c r="C26">
+        <v>-0.0433434340660818</v>
+      </c>
+      <c r="D26">
+        <v>0.01903270812131057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005340055685277336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0002618448381868293</v>
+      </c>
+      <c r="C28">
+        <v>-0.137490491433556</v>
+      </c>
+      <c r="D28">
+        <v>-0.3018036235201191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.00163091565647553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003498539234941718</v>
+      </c>
+      <c r="C29">
+        <v>-0.05019410866706463</v>
+      </c>
+      <c r="D29">
+        <v>0.02131564353825412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005630144836451789</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009377148193973839</v>
+      </c>
+      <c r="C30">
+        <v>-0.1326900096050443</v>
+      </c>
+      <c r="D30">
+        <v>0.1121778770917119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001748253553476824</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006184260937749339</v>
+      </c>
+      <c r="C31">
+        <v>-0.04677634251481898</v>
+      </c>
+      <c r="D31">
+        <v>0.0362301664693298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004269463152847641</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003534998096521714</v>
+      </c>
+      <c r="C32">
+        <v>-0.04081699607356887</v>
+      </c>
+      <c r="D32">
+        <v>0.0167996470014892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004545450955616105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008070371760877255</v>
+      </c>
+      <c r="C33">
+        <v>-0.08124774786165379</v>
+      </c>
+      <c r="D33">
+        <v>0.07674036457101351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005994855510807309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003890110056504604</v>
+      </c>
+      <c r="C34">
+        <v>-0.05610981068421392</v>
+      </c>
+      <c r="D34">
+        <v>0.04394122584416851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004267355508029568</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004940690752503941</v>
+      </c>
+      <c r="C35">
+        <v>-0.03893201287861352</v>
+      </c>
+      <c r="D35">
+        <v>0.01798472262096049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005505248086405473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001274615490471631</v>
+      </c>
+      <c r="C36">
+        <v>-0.02725197435210437</v>
+      </c>
+      <c r="D36">
+        <v>0.0167344590425525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002258834146073783</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009191873207326022</v>
+      </c>
+      <c r="C38">
+        <v>-0.0356056194501951</v>
+      </c>
+      <c r="D38">
+        <v>0.03052394936005725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01567723993340555</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001146382464658072</v>
+      </c>
+      <c r="C39">
+        <v>-0.1108221783139042</v>
+      </c>
+      <c r="D39">
+        <v>0.08552169248390133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008442265681047424</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002671828284253854</v>
+      </c>
+      <c r="C40">
+        <v>-0.0843229272334015</v>
+      </c>
+      <c r="D40">
+        <v>0.03549121675029293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>4.732467711517965e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007579278630604487</v>
+      </c>
+      <c r="C41">
+        <v>-0.0413782284818816</v>
+      </c>
+      <c r="D41">
+        <v>0.03494650383780668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002103770856648858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002952615157251239</v>
+      </c>
+      <c r="C43">
+        <v>-0.05187335855834996</v>
+      </c>
+      <c r="D43">
+        <v>0.0275756002299822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00525752187159531</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003418766797352782</v>
+      </c>
+      <c r="C44">
+        <v>-0.1045956351775276</v>
+      </c>
+      <c r="D44">
+        <v>0.08180989158186211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00236435965162926</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002647427295233018</v>
+      </c>
+      <c r="C46">
+        <v>-0.03381162825460617</v>
+      </c>
+      <c r="D46">
+        <v>0.0344792999242864</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002667406663764813</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002828815154812442</v>
+      </c>
+      <c r="C47">
+        <v>-0.04075951823176091</v>
+      </c>
+      <c r="D47">
+        <v>0.02734604916387799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003676645226134273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006594769387259971</v>
+      </c>
+      <c r="C48">
+        <v>-0.03249483660314868</v>
+      </c>
+      <c r="D48">
+        <v>0.02256573450317266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01635535260559497</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01409907079202585</v>
+      </c>
+      <c r="C49">
+        <v>-0.1646515829187243</v>
+      </c>
+      <c r="D49">
+        <v>0.04372228526882015</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003173639668047798</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00400752711062183</v>
+      </c>
+      <c r="C50">
+        <v>-0.0429996931782587</v>
+      </c>
+      <c r="D50">
+        <v>0.03830430611904247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002615883295409327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004124215968204084</v>
+      </c>
+      <c r="C51">
+        <v>-0.02017644930830973</v>
+      </c>
+      <c r="D51">
+        <v>0.03488780742726422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0001362980351199679</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0201485119977959</v>
+      </c>
+      <c r="C53">
+        <v>-0.1627209457166252</v>
+      </c>
+      <c r="D53">
+        <v>0.0592063880671633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00134917067736774</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008686428469723673</v>
+      </c>
+      <c r="C54">
+        <v>-0.05405789892168973</v>
+      </c>
+      <c r="D54">
+        <v>0.04232593450448566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005986397835635173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009601156727193087</v>
+      </c>
+      <c r="C55">
+        <v>-0.1034254714922152</v>
+      </c>
+      <c r="D55">
+        <v>0.05618527215271077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001355184509767871</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01894757684659927</v>
+      </c>
+      <c r="C56">
+        <v>-0.1672330720114711</v>
+      </c>
+      <c r="D56">
+        <v>0.06101536880969115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008995699267996525</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01966700658726855</v>
+      </c>
+      <c r="C58">
+        <v>-0.09982252914415213</v>
+      </c>
+      <c r="D58">
+        <v>0.08180548839357371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009227995790656427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008888743192325806</v>
+      </c>
+      <c r="C59">
+        <v>-0.1774561714796179</v>
+      </c>
+      <c r="D59">
+        <v>-0.2682684563431026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008922258225534753</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02298315372170778</v>
+      </c>
+      <c r="C60">
+        <v>-0.2210114855257288</v>
+      </c>
+      <c r="D60">
+        <v>0.03344942228338307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01797842591641568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001959051738850822</v>
+      </c>
+      <c r="C61">
+        <v>-0.09309874205352675</v>
+      </c>
+      <c r="D61">
+        <v>0.06551076153208529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1889618406422403</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1450049467611869</v>
+      </c>
+      <c r="C62">
+        <v>-0.06846313877012812</v>
+      </c>
+      <c r="D62">
+        <v>0.05325304989471922</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003013872812291491</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006662044880460429</v>
+      </c>
+      <c r="C63">
+        <v>-0.06046886136693443</v>
+      </c>
+      <c r="D63">
+        <v>0.02102559513644207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006317458292790578</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01568885744804862</v>
+      </c>
+      <c r="C64">
+        <v>-0.09651889357090833</v>
+      </c>
+      <c r="D64">
+        <v>0.07142878324373107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0005567899717078995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01732315742677946</v>
+      </c>
+      <c r="C65">
+        <v>-0.1102119118445424</v>
+      </c>
+      <c r="D65">
+        <v>0.03875865298413247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01224068434992655</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0123199039669547</v>
+      </c>
+      <c r="C66">
+        <v>-0.1471445397247531</v>
+      </c>
+      <c r="D66">
+        <v>0.1248378705008849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001795058383555059</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0151646392876518</v>
+      </c>
+      <c r="C67">
+        <v>-0.06419657847932161</v>
+      </c>
+      <c r="D67">
+        <v>0.04267847336148942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009141268715825194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001589644485860731</v>
+      </c>
+      <c r="C68">
+        <v>-0.1209023604015402</v>
+      </c>
+      <c r="D68">
+        <v>-0.2658253550821134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003382062695628978</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005200724464294149</v>
+      </c>
+      <c r="C69">
+        <v>-0.04568307971388789</v>
+      </c>
+      <c r="D69">
+        <v>0.04434155084621981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001260277679853579</v>
+      </c>
+      <c r="C70">
+        <v>-0.001613947765849161</v>
+      </c>
+      <c r="D70">
+        <v>0.001317851241370544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004352846090278503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006265777184805176</v>
+      </c>
+      <c r="C71">
+        <v>-0.1248296444586272</v>
+      </c>
+      <c r="D71">
+        <v>-0.2803513384553982</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008580675618588066</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01533561326378725</v>
+      </c>
+      <c r="C72">
+        <v>-0.1467935733920236</v>
+      </c>
+      <c r="D72">
+        <v>0.03573687540350565</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01431798748716989</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03108533355347835</v>
+      </c>
+      <c r="C73">
+        <v>-0.283286190818322</v>
+      </c>
+      <c r="D73">
+        <v>0.05468724271665855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005853978990704048</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001915976454582172</v>
+      </c>
+      <c r="C74">
+        <v>-0.1015468624939109</v>
+      </c>
+      <c r="D74">
+        <v>0.04755177874924581</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006722467452853822</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01042951497985745</v>
+      </c>
+      <c r="C75">
+        <v>-0.130516364897969</v>
+      </c>
+      <c r="D75">
+        <v>0.04637618610150621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01051130305479868</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02117978350270398</v>
+      </c>
+      <c r="C76">
+        <v>-0.1413082541827848</v>
+      </c>
+      <c r="D76">
+        <v>0.07616274515052467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008570524346686811</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0222153570673229</v>
+      </c>
+      <c r="C77">
+        <v>-0.1174370339933341</v>
+      </c>
+      <c r="D77">
+        <v>0.1193598545875062</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0007472176193546626</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01467628794193059</v>
+      </c>
+      <c r="C78">
+        <v>-0.08962447774541582</v>
+      </c>
+      <c r="D78">
+        <v>0.06806909846078892</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02634095065572488</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03660158569598852</v>
+      </c>
+      <c r="C79">
+        <v>-0.1525442018412378</v>
+      </c>
+      <c r="D79">
+        <v>0.04368631426274511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003244733810677802</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01085112179967103</v>
+      </c>
+      <c r="C80">
+        <v>-0.04396809370823335</v>
+      </c>
+      <c r="D80">
+        <v>0.0287487237809287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>8.467200463320169e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01449675487542309</v>
+      </c>
+      <c r="C81">
+        <v>-0.1182644886721705</v>
+      </c>
+      <c r="D81">
+        <v>0.06535755635594785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006213192539867822</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01867600848435415</v>
+      </c>
+      <c r="C82">
+        <v>-0.1381944381734659</v>
+      </c>
+      <c r="D82">
+        <v>0.05405690717633198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008517420484834682</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009703774583422834</v>
+      </c>
+      <c r="C83">
+        <v>-0.05203166922502306</v>
+      </c>
+      <c r="D83">
+        <v>0.04892863478992265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01364403614980503</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01233766719125473</v>
+      </c>
+      <c r="C84">
+        <v>-0.03096195777256911</v>
+      </c>
+      <c r="D84">
+        <v>0.001938267246977579</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01635738342505795</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02840733355703338</v>
+      </c>
+      <c r="C85">
+        <v>-0.1272280824248171</v>
+      </c>
+      <c r="D85">
+        <v>0.06004818256272202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003672642086287539</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004813821718100691</v>
+      </c>
+      <c r="C86">
+        <v>-0.04770771308720841</v>
+      </c>
+      <c r="D86">
+        <v>0.02224096155675081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008197883132608831</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01011848542612761</v>
+      </c>
+      <c r="C87">
+        <v>-0.1230503497815199</v>
+      </c>
+      <c r="D87">
+        <v>0.08204796981494526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01477132936992116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003015311429512811</v>
+      </c>
+      <c r="C88">
+        <v>-0.07305814579920963</v>
+      </c>
+      <c r="D88">
+        <v>0.01757768725796456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01536881113511698</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001776071673499166</v>
+      </c>
+      <c r="C89">
+        <v>-0.1753119124180681</v>
+      </c>
+      <c r="D89">
+        <v>-0.3281880439995946</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.00239859291718808</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007718637751306409</v>
+      </c>
+      <c r="C90">
+        <v>-0.1577677459070418</v>
+      </c>
+      <c r="D90">
+        <v>-0.3156185169512485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005318843344436366</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0098886039609094</v>
+      </c>
+      <c r="C91">
+        <v>-0.101940953294367</v>
+      </c>
+      <c r="D91">
+        <v>0.02302176886172756</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01832062676338966</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001070561430288553</v>
+      </c>
+      <c r="C92">
+        <v>-0.1631823333164855</v>
+      </c>
+      <c r="D92">
+        <v>-0.3145956939344924</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001894934057263576</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005187507454427514</v>
+      </c>
+      <c r="C93">
+        <v>-0.1392189204998024</v>
+      </c>
+      <c r="D93">
+        <v>-0.3078995031284998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.001094297491210287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02181031280947627</v>
+      </c>
+      <c r="C94">
+        <v>-0.1547401404948048</v>
+      </c>
+      <c r="D94">
+        <v>0.03881515781486025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006927971079715125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.0166690610694528</v>
+      </c>
+      <c r="C95">
+        <v>-0.1200810323135648</v>
+      </c>
+      <c r="D95">
+        <v>0.06902536890651861</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004581989826600207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03261950422655185</v>
+      </c>
+      <c r="C97">
+        <v>-0.1661127909105139</v>
+      </c>
+      <c r="D97">
+        <v>0.05105617612732371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0100910406496606</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03589627367299513</v>
+      </c>
+      <c r="C98">
+        <v>-0.2574277444426149</v>
+      </c>
+      <c r="D98">
+        <v>0.05184006650920154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9792101546793804</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9825679854581034</v>
+      </c>
+      <c r="C99">
+        <v>0.1072167390732484</v>
+      </c>
+      <c r="D99">
+        <v>-0.03716808155311271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001583534787691997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003542112776414661</v>
+      </c>
+      <c r="C101">
+        <v>-0.05027764579689142</v>
+      </c>
+      <c r="D101">
+        <v>0.0213596212287471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
